--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_10.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_10.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N208"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1732761859893799</v>
+        <v>0.00061798095703125</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006392002105712891</v>
+        <v>0.0006940364837646484</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002599954605102539</v>
+        <v>0.0209650993347168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (0, 3), (1, 3), (2, 3)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [0, 3], [1, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 0), (2, 2), (0, 1), (1, 3), (0, 3), (0, 2), (1, 2), (1, 1), (2, 1)]</t>
+          <t>[[2, 0], [1, 0], [2, 2], [0, 1], [1, 3], [0, 3], [0, 2], [1, 2], [1, 1], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 2), (2, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [1, 2], [2, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3)]</t>
+          <t>[[2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>[(1, 2), (2, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0)]</t>
+          <t>[[1, 2], [2, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (1, 3), (2, 3), (0, 3), (2, 2), (1, 2), (0, 0), (0, 1), (1, 0)]</t>
+          <t>[[1, 1], [0, 2], [1, 3], [2, 3], [0, 3], [2, 2], [1, 2], [0, 0], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>[(2, 2), (3, 0), (2, 0), (1, 2), (0, 1), (0, 0), (0, 2), (1, 1), (1, 0), (2, 1)]</t>
+          <t>[[2, 2], [3, 0], [2, 0], [1, 2], [0, 1], [0, 0], [0, 2], [1, 1], [1, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>[(2, 2), (3, 0), (2, 0), (1, 2), (1, 0), (0, 3), (0, 0), (1, 1), (0, 1), (0, 2)]</t>
+          <t>[[2, 2], [3, 0], [2, 0], [1, 2], [1, 0], [0, 3], [0, 0], [1, 1], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -1941,110 +1941,120 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>51</v>
+        <v>0.9969143137434319</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>135</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.2025389671325684</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.04724001884460449</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
+      <c r="I209" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr">
+      <c r="J209" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L208" t="inlineStr">
+      <c r="L209" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr">
+      <c r="M209" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N208" t="inlineStr">
+      <c r="N209" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
